--- a/data/trans_orig/P21D_1_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P21D_1_R-Dificultad-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4116</v>
+        <v>3864</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002775391538342231</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01525895351349744</v>
+        <v>0.01432643589669002</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>4096</v>
+        <v>3886</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001602231001325282</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.008765938734020567</v>
+        <v>0.008316920533124788</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>268978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>265611</v>
+        <v>265863</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>269727</v>
@@ -826,7 +826,7 @@
         <v>0.9972246084616578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9847410464865033</v>
+        <v>0.9856735641033101</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,16 +838,16 @@
         <v>466473</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>463126</v>
+        <v>463336</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>467222</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9983977689986745</v>
+        <v>0.9983977689986746</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9912340612659795</v>
+        <v>0.9916830794668753</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4194</v>
+        <v>3482</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001408523404604009</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008410505904167025</v>
+        <v>0.006984220219711792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1</v>
@@ -1317,16 +1317,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>3451</v>
+        <v>3857</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.0006701762271531578</v>
+        <v>0.0006701762271531577</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003293440356419746</v>
+        <v>0.003680376981550941</v>
       </c>
     </row>
     <row r="14">
@@ -1356,16 +1356,16 @@
         <v>497905</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>494413</v>
+        <v>495125</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>498607</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9985914765953959</v>
+        <v>0.998591476595396</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.991589494095833</v>
+        <v>0.9930157797802881</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1377,16 +1377,16 @@
         <v>1047230</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1044481</v>
+        <v>1044075</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>1047932</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9993298237728468</v>
+        <v>0.9993298237728467</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9967065596435803</v>
+        <v>0.996319623018449</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4853</v>
+        <v>5201</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0008622526245946174</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.002884087387893889</v>
+        <v>0.003091096217523284</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4451</v>
+        <v>4441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0004486912548638401</v>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.001376371920262236</v>
+        <v>0.001373334700598828</v>
       </c>
     </row>
     <row r="17">
@@ -1557,16 +1557,16 @@
         <v>1681232</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1677830</v>
+        <v>1677482</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>1682683</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9991377473754054</v>
+        <v>0.9991377473754055</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9971159126121062</v>
+        <v>0.9969089037824765</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1578,16 +1578,16 @@
         <v>3232170</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3229170</v>
+        <v>3229180</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>3233621</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9995513087451362</v>
+        <v>0.999551308745136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9986236280797377</v>
+        <v>0.9986266652994011</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
